--- a/data/trans_orig/P36B07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>95420</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>79653</v>
+        <v>79952</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113120</v>
+        <v>112358</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3277336289730087</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.273579975244152</v>
+        <v>0.274607242208752</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3885270677079604</v>
+        <v>0.3859094382194598</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>76</v>
@@ -762,19 +762,19 @@
         <v>80010</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65692</v>
+        <v>65880</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>96562</v>
+        <v>96044</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2814832623702504</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2311105312626588</v>
+        <v>0.2317717910067746</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3397168659002344</v>
+        <v>0.3378943317419938</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>164</v>
@@ -783,19 +783,19 @@
         <v>175430</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>152442</v>
+        <v>154142</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>198621</v>
+        <v>198802</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.304886156557797</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2649351603062075</v>
+        <v>0.2678897424793598</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3451903758603042</v>
+        <v>0.3455060071928575</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>32304</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21291</v>
+        <v>21675</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43220</v>
+        <v>45201</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1109530500879432</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07312615490563983</v>
+        <v>0.07444411447349814</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1484460082245889</v>
+        <v>0.1552504643736603</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -833,19 +833,19 @@
         <v>33466</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22796</v>
+        <v>23689</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46316</v>
+        <v>46323</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1177360516881516</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.080199094556103</v>
+        <v>0.08334206121733437</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1629463155451001</v>
+        <v>0.1629713442143339</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -854,19 +854,19 @@
         <v>65770</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50956</v>
+        <v>52578</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>84471</v>
+        <v>82510</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1143038222728248</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08855799476511618</v>
+        <v>0.09137707951975575</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1468047502660212</v>
+        <v>0.1433970907573349</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>62724</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48498</v>
+        <v>49078</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>77610</v>
+        <v>78217</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2154322527451187</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1665714840712275</v>
+        <v>0.1685665306526195</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2665628086255262</v>
+        <v>0.2686461683763988</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>48</v>
@@ -904,19 +904,19 @@
         <v>49039</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>36431</v>
+        <v>37075</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>63514</v>
+        <v>62990</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1725262814241988</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1281686686109029</v>
+        <v>0.1304338666097943</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2234501331316437</v>
+        <v>0.2216049226377158</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>103</v>
@@ -925,19 +925,19 @@
         <v>111763</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>93322</v>
+        <v>92316</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>132060</v>
+        <v>132243</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1942368965088696</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1621872037978221</v>
+        <v>0.1604395485273925</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2295119488423942</v>
+        <v>0.2298291005379135</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>47834</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36344</v>
+        <v>35937</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61082</v>
+        <v>61807</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1642931955787963</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1248292741255442</v>
+        <v>0.1234313027169218</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.209792877750703</v>
+        <v>0.212285689525375</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -975,19 +975,19 @@
         <v>51655</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39457</v>
+        <v>39598</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66126</v>
+        <v>65502</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1817290093332042</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1388159864877838</v>
+        <v>0.1393090964805736</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2326394624987068</v>
+        <v>0.2304437817718082</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -996,19 +996,19 @@
         <v>99489</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82414</v>
+        <v>81518</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>118610</v>
+        <v>118592</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1729064089012361</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1432309163236686</v>
+        <v>0.1416723462718753</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2061359280339551</v>
+        <v>0.2061049560311537</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>52870</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>39894</v>
+        <v>40210</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>67671</v>
+        <v>70100</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1815878726151331</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1370225153427389</v>
+        <v>0.1381051247529225</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2324261589571294</v>
+        <v>0.2407690489193082</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>68</v>
@@ -1046,19 +1046,19 @@
         <v>70073</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>55828</v>
+        <v>57430</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>86540</v>
+        <v>85897</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2465253951841951</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1964087673886128</v>
+        <v>0.2020448133177586</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3044595430180045</v>
+        <v>0.3021955095538827</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>114</v>
@@ -1067,19 +1067,19 @@
         <v>122943</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>105059</v>
+        <v>103718</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>142604</v>
+        <v>144243</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2136667157592725</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1825856196548848</v>
+        <v>0.1802547572875262</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2478361806833511</v>
+        <v>0.2506843363171289</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>127883</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>108566</v>
+        <v>107891</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>149931</v>
+        <v>148268</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2566331175061676</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2178697136400852</v>
+        <v>0.216514403689976</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3008796936909517</v>
+        <v>0.2975420136447164</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>110</v>
@@ -1192,19 +1192,19 @@
         <v>119721</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>102474</v>
+        <v>101882</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>139702</v>
+        <v>140774</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2294653479443055</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1964086673356456</v>
+        <v>0.1952752250796836</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2677629016548786</v>
+        <v>0.2698177500007105</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>231</v>
@@ -1213,19 +1213,19 @@
         <v>247603</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>223287</v>
+        <v>219052</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>277888</v>
+        <v>275701</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2427372496602785</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2188992202737863</v>
+        <v>0.2147469374974217</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.272427114093812</v>
+        <v>0.2702830981932587</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>108448</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>90974</v>
+        <v>88960</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>129113</v>
+        <v>126403</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2176314808842678</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1825661294514221</v>
+        <v>0.1785244988085204</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2591022076048327</v>
+        <v>0.2536640920761422</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>95</v>
@@ -1263,19 +1263,19 @@
         <v>103371</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>85726</v>
+        <v>85117</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>122319</v>
+        <v>123920</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1981279766261531</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1643079217257762</v>
+        <v>0.1631418926041617</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2344457213655898</v>
+        <v>0.2375150240858014</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>196</v>
@@ -1284,19 +1284,19 @@
         <v>211818</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>186092</v>
+        <v>182965</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>239431</v>
+        <v>238574</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2076557588403444</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1824344626748017</v>
+        <v>0.1793691035489537</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2347260460916934</v>
+        <v>0.2338851564914432</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>97383</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>79127</v>
+        <v>80677</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>118486</v>
+        <v>117332</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1954269033773433</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1587915048924454</v>
+        <v>0.1619025233246303</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.237776227377784</v>
+        <v>0.2354610600546205</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>90</v>
@@ -1334,19 +1334,19 @@
         <v>97052</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>79749</v>
+        <v>79900</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>116457</v>
+        <v>117111</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1860179413846322</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.152853760248484</v>
+        <v>0.1531429146304934</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.223209748434259</v>
+        <v>0.224464453136353</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>181</v>
@@ -1355,19 +1355,19 @@
         <v>194435</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>170550</v>
+        <v>171446</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>222259</v>
+        <v>221052</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1906143738791085</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1671986558143136</v>
+        <v>0.1680767260276273</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2178907039638477</v>
+        <v>0.216707549545121</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>76741</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61977</v>
+        <v>62335</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94623</v>
+        <v>94563</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1540020767637121</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.124374947922973</v>
+        <v>0.1250936922854254</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.189888516688193</v>
+        <v>0.1897683127806016</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>84</v>
@@ -1405,19 +1405,19 @@
         <v>89395</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>73726</v>
+        <v>73210</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>108069</v>
+        <v>106235</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1713419973077975</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1413082679139536</v>
+        <v>0.1403199567570939</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2071337776806263</v>
+        <v>0.2036187898096575</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>158</v>
@@ -1426,19 +1426,19 @@
         <v>166136</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>145080</v>
+        <v>143419</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>190902</v>
+        <v>192194</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1628711612791033</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1422285278985989</v>
+        <v>0.1406009088875588</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1871506670728173</v>
+        <v>0.1884174423264212</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>87855</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>71205</v>
+        <v>71391</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>104976</v>
+        <v>104320</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1763064214685092</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1428927285343549</v>
+        <v>0.1432671309411694</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2106644432818196</v>
+        <v>0.209347822040746</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>104</v>
@@ -1476,19 +1476,19 @@
         <v>112198</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93257</v>
+        <v>93498</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>131171</v>
+        <v>132847</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2150467367371118</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1787428794929556</v>
+        <v>0.1792045276610899</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2514124390453092</v>
+        <v>0.2546251058376575</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>188</v>
@@ -1497,19 +1497,19 @@
         <v>200053</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>176489</v>
+        <v>176089</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>231083</v>
+        <v>226764</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1961214563411653</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1730208671773048</v>
+        <v>0.1726288069786761</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2265414279594032</v>
+        <v>0.2223071979634756</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>94736</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78563</v>
+        <v>80094</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>110837</v>
+        <v>110989</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2973837553631913</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2466163306574114</v>
+        <v>0.2514226350673434</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3479262322447505</v>
+        <v>0.3484025186758615</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>112</v>
@@ -1622,19 +1622,19 @@
         <v>109275</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>93279</v>
+        <v>93526</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>127706</v>
+        <v>127657</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3266938009807324</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2788715514762829</v>
+        <v>0.2796091818535079</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3817951578688105</v>
+        <v>0.3816484191698879</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>211</v>
@@ -1643,19 +1643,19 @@
         <v>204011</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>181594</v>
+        <v>183200</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>229935</v>
+        <v>228909</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3123961011308076</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2780696792784857</v>
+        <v>0.2805285027246576</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.352092815911153</v>
+        <v>0.3505209999414424</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>114573</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>97685</v>
+        <v>98198</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132336</v>
+        <v>132349</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3596535732358445</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3066393893509101</v>
+        <v>0.3082501174532733</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4154135058235485</v>
+        <v>0.415453648611624</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>90</v>
@@ -1693,19 +1693,19 @@
         <v>90152</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>73932</v>
+        <v>74987</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>107618</v>
+        <v>107481</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2695215705588985</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2210300750965656</v>
+        <v>0.2241831150729676</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3217409672422077</v>
+        <v>0.3213295335722494</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>210</v>
@@ -1714,19 +1714,19 @@
         <v>204725</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>182931</v>
+        <v>184712</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>228097</v>
+        <v>226876</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3134887597595991</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2801173031939982</v>
+        <v>0.2828444440081318</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3492778796882657</v>
+        <v>0.3474075694926829</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>66152</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>52468</v>
+        <v>52612</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>81389</v>
+        <v>80924</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2076547067552623</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1647004101130958</v>
+        <v>0.1651523951258854</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2554863803413293</v>
+        <v>0.2540253701639424</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>77</v>
@@ -1764,19 +1764,19 @@
         <v>79193</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>65493</v>
+        <v>64358</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>97013</v>
+        <v>95624</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2367585340960483</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1958021971663667</v>
+        <v>0.1924062214725017</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2900331503758954</v>
+        <v>0.2858817547030957</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>147</v>
@@ -1785,19 +1785,19 @@
         <v>145344</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>126013</v>
+        <v>124676</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>166946</v>
+        <v>165500</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2225614293479901</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1929604298846898</v>
+        <v>0.1909120200483444</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2556391464165138</v>
+        <v>0.2534255297843651</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>22091</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14411</v>
+        <v>14913</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31674</v>
+        <v>31644</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06934562640168299</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04523658549674099</v>
+        <v>0.04681326866589385</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09942602629764519</v>
+        <v>0.09933277856815861</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -1835,19 +1835,19 @@
         <v>32229</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21423</v>
+        <v>21930</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45669</v>
+        <v>45058</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0963526545084446</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06404763205433141</v>
+        <v>0.06556255480687224</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1365334751518915</v>
+        <v>0.1347076626736078</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>53</v>
@@ -1856,19 +1856,19 @@
         <v>54320</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>40705</v>
+        <v>41211</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>69059</v>
+        <v>68428</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08317838699799525</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06233082825988068</v>
+        <v>0.06310484614146203</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1057480701446026</v>
+        <v>0.1047810706603945</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>21013</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13146</v>
+        <v>13644</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31366</v>
+        <v>31646</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06596233824401893</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04126532317219518</v>
+        <v>0.04282994431900755</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09845937186884307</v>
+        <v>0.09933772058130826</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>22</v>
@@ -1906,19 +1906,19 @@
         <v>23639</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14834</v>
+        <v>14873</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35944</v>
+        <v>35820</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07067343985587618</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04434771187160171</v>
+        <v>0.04446625561504218</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1074598126758796</v>
+        <v>0.1070898893673962</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>44</v>
@@ -1927,19 +1927,19 @@
         <v>44653</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>31963</v>
+        <v>32520</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>58213</v>
+        <v>58008</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06837532276360797</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04894351939245411</v>
+        <v>0.04979717184131628</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08914051663839177</v>
+        <v>0.08882661304979489</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>143900</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>125526</v>
+        <v>125764</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>161489</v>
+        <v>164351</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.392873237689558</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3427099571064831</v>
+        <v>0.3433593949667614</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4408951877726709</v>
+        <v>0.4487089714249565</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>141</v>
@@ -2052,19 +2052,19 @@
         <v>154191</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>134284</v>
+        <v>133718</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>175016</v>
+        <v>174085</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4006283408616818</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3489056937659851</v>
+        <v>0.3474336616120486</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4547375670073964</v>
+        <v>0.4523173914264322</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>280</v>
@@ -2073,19 +2073,19 @@
         <v>298090</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>269858</v>
+        <v>268814</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>326147</v>
+        <v>324789</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3968467953233673</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3592607528139879</v>
+        <v>0.3578708406592123</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4341980749853196</v>
+        <v>0.4323906480277332</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>63005</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>49569</v>
+        <v>48595</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>78611</v>
+        <v>80097</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1720161167310279</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.135332296424383</v>
+        <v>0.132674081712095</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.214623282079231</v>
+        <v>0.2186791149521686</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>64</v>
@@ -2123,19 +2123,19 @@
         <v>69537</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>54853</v>
+        <v>54957</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>85474</v>
+        <v>86547</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1806751164523617</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1425216005480469</v>
+        <v>0.1427924921214571</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2220825221050946</v>
+        <v>0.2248705893595039</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>123</v>
@@ -2144,19 +2144,19 @@
         <v>132542</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>112846</v>
+        <v>109936</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>155374</v>
+        <v>151695</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1764528126305147</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1502310867568231</v>
+        <v>0.1463575748758667</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2068490345924793</v>
+        <v>0.2019518137092691</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>61091</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>46786</v>
+        <v>47440</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>76651</v>
+        <v>75604</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1667893408187393</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1277356325827067</v>
+        <v>0.129520117758472</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2092713483183571</v>
+        <v>0.2064128842344087</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>49</v>
@@ -2194,19 +2194,19 @@
         <v>52954</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>39744</v>
+        <v>40619</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>69373</v>
+        <v>68034</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1375889099287288</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1032655027530275</v>
+        <v>0.1055385303089359</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1802489520588588</v>
+        <v>0.1767704815025343</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>107</v>
@@ -2215,19 +2215,19 @@
         <v>114045</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>94433</v>
+        <v>96923</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>136652</v>
+        <v>136738</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1518276320576491</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1257186316306728</v>
+        <v>0.12903364894295</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1819243801822948</v>
+        <v>0.1820386150533757</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>26414</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18137</v>
+        <v>18124</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37615</v>
+        <v>37868</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07211568866416759</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04951794034425755</v>
+        <v>0.04948205573675755</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1026970326075188</v>
+        <v>0.1033870045020715</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -2265,19 +2265,19 @@
         <v>27220</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18404</v>
+        <v>18609</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40026</v>
+        <v>38778</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07072585727631819</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04781874564257108</v>
+        <v>0.04835108268257563</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1039969618173959</v>
+        <v>0.1007564300312811</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>52</v>
@@ -2286,19 +2286,19 @@
         <v>53635</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>40854</v>
+        <v>39886</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>68825</v>
+        <v>69020</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07140356723930402</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05438883912353083</v>
+        <v>0.05309966110054512</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0916265349585046</v>
+        <v>0.09188569020924504</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>71865</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>56385</v>
+        <v>57940</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>87043</v>
+        <v>89267</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1962056160965074</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.153941610137436</v>
+        <v>0.1581864293500274</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2376427725862287</v>
+        <v>0.2437164895968691</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>77</v>
@@ -2336,19 +2336,19 @@
         <v>80970</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>66473</v>
+        <v>65999</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>96985</v>
+        <v>99320</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2103817754809096</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1727150081798571</v>
+        <v>0.1714834783836045</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2519912231005902</v>
+        <v>0.2580598555693646</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>145</v>
@@ -2357,19 +2357,19 @@
         <v>152835</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>129502</v>
+        <v>131290</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>175221</v>
+        <v>176354</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2034691927491649</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1724054742936197</v>
+        <v>0.1747860937648179</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2332715575028956</v>
+        <v>0.2347792564675943</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>6128</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2619</v>
+        <v>2479</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12393</v>
+        <v>11773</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02901418532705377</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0123986138482829</v>
+        <v>0.01173878795936178</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05867307292435615</v>
+        <v>0.05573590520240877</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>11</v>
@@ -2482,19 +2482,19 @@
         <v>10189</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5338</v>
+        <v>5478</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17527</v>
+        <v>17857</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04661427847840131</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02441821294494956</v>
+        <v>0.02506030322150102</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08018525988178002</v>
+        <v>0.08169096692772308</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>18</v>
@@ -2503,19 +2503,19 @@
         <v>16318</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10040</v>
+        <v>9717</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>25136</v>
+        <v>25718</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03796504612363984</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02335871859301772</v>
+        <v>0.02260872781715935</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05848168725310681</v>
+        <v>0.05983488431085622</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>32377</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>22809</v>
+        <v>22654</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>43783</v>
+        <v>43300</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1532848544551703</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1079871674586789</v>
+        <v>0.1072511174674472</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2072842848965928</v>
+        <v>0.2049962585784158</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>32</v>
@@ -2553,19 +2553,19 @@
         <v>31967</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>22688</v>
+        <v>22671</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>43825</v>
+        <v>43323</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.146243674704326</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1037938918932834</v>
+        <v>0.1037161563772439</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2004935025354634</v>
+        <v>0.1981975177972841</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>64</v>
@@ -2574,19 +2574,19 @@
         <v>64344</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>50351</v>
+        <v>51625</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>79410</v>
+        <v>80682</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1497039291014473</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1171470411142461</v>
+        <v>0.1201106811030118</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1847571201708046</v>
+        <v>0.1877173963045346</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>54681</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>42887</v>
+        <v>42883</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>66848</v>
+        <v>67484</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2588816111132818</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2030439141834922</v>
+        <v>0.2030263020448456</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3164847036246187</v>
+        <v>0.3194937508815588</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>52</v>
@@ -2624,19 +2624,19 @@
         <v>50585</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>38486</v>
+        <v>38609</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>63984</v>
+        <v>64811</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2314172421304839</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1760652494737576</v>
+        <v>0.1766301362027619</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2927161718235241</v>
+        <v>0.2964976182038222</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>108</v>
@@ -2645,19 +2645,19 @@
         <v>105266</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>88251</v>
+        <v>88299</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>121215</v>
+        <v>123442</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2449140859691164</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2053265584208208</v>
+        <v>0.2054386823218945</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2820210702840545</v>
+        <v>0.2872036805464405</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>75090</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>61704</v>
+        <v>61241</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>90272</v>
+        <v>88715</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.355503909150199</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2921282501661374</v>
+        <v>0.289936454382537</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4273810939930573</v>
+        <v>0.4200121779038431</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>81</v>
@@ -2695,19 +2695,19 @@
         <v>79425</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>65888</v>
+        <v>65756</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>92988</v>
+        <v>94410</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3633542030527009</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3014259357926702</v>
+        <v>0.3008246410165445</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4254037458415278</v>
+        <v>0.4319082966461572</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>156</v>
@@ -2716,19 +2716,19 @@
         <v>154514</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>135424</v>
+        <v>134820</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>176465</v>
+        <v>174920</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3594963248339877</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.315079400847073</v>
+        <v>0.3136743779322689</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4105671475387538</v>
+        <v>0.4069724441962914</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>42944</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>32446</v>
+        <v>31515</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>55543</v>
+        <v>55770</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2033154399542951</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1536130914481469</v>
+        <v>0.1492048893745247</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2629629044654062</v>
+        <v>0.2640365578920403</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>47</v>
@@ -2766,19 +2766,19 @@
         <v>46421</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>35060</v>
+        <v>35491</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>58105</v>
+        <v>59416</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2123706016340878</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1603923521682647</v>
+        <v>0.1623666348898256</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.265821073732865</v>
+        <v>0.2718170658975258</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>89</v>
@@ -2787,19 +2787,19 @@
         <v>89366</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>72748</v>
+        <v>72704</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>107891</v>
+        <v>106656</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2079206139718087</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.16925695050667</v>
+        <v>0.1691555535180916</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2510205027442223</v>
+        <v>0.2481473321315635</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>154300</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>138258</v>
+        <v>138461</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>169629</v>
+        <v>169282</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5885917007690006</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5273951352766495</v>
+        <v>0.5281704050914496</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6470649564849138</v>
+        <v>0.6457387018074769</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>144</v>
@@ -2912,19 +2912,19 @@
         <v>149282</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>131836</v>
+        <v>133890</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>164693</v>
+        <v>167119</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5465888693089107</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4827107208321409</v>
+        <v>0.4902339559549166</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6030187856009921</v>
+        <v>0.6119005692488874</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>295</v>
@@ -2933,19 +2933,19 @@
         <v>303582</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>277788</v>
+        <v>281737</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>326815</v>
+        <v>329018</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5671601608001254</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5189712117889692</v>
+        <v>0.5263481094508803</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6105642771658066</v>
+        <v>0.6146797153361964</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>27679</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>19254</v>
+        <v>18553</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>39325</v>
+        <v>39899</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1055820079128461</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07344434867705704</v>
+        <v>0.07077251328079127</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1500065434292042</v>
+        <v>0.1521971724020307</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>28</v>
@@ -2983,19 +2983,19 @@
         <v>29537</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>19868</v>
+        <v>19278</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>40739</v>
+        <v>41027</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1081502270895327</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07274493373542201</v>
+        <v>0.07058633054133928</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1491624819191232</v>
+        <v>0.1502189462106576</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>55</v>
@@ -3004,19 +3004,19 @@
         <v>57216</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>43424</v>
+        <v>42467</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>73225</v>
+        <v>72938</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1068924169976786</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08112654088078056</v>
+        <v>0.0793386238628756</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1368006285738075</v>
+        <v>0.1362648163486645</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>34893</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>25797</v>
+        <v>25622</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>46710</v>
+        <v>48465</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.133103820079162</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.09840425799537759</v>
+        <v>0.09773716208512992</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1781786834966794</v>
+        <v>0.1848729709206593</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>34</v>
@@ -3054,19 +3054,19 @@
         <v>35533</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>25615</v>
+        <v>25164</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>48051</v>
+        <v>47644</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1301032660451085</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09378937327430852</v>
+        <v>0.09213815838384701</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1759369599774416</v>
+        <v>0.1744481941443665</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>70</v>
@@ -3075,19 +3075,19 @@
         <v>70427</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>56707</v>
+        <v>56487</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>86500</v>
+        <v>87512</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1315728162997932</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1059414865739834</v>
+        <v>0.1055308198761259</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1616016202110379</v>
+        <v>0.1634915460497643</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>26132</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>17375</v>
+        <v>17632</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>37430</v>
+        <v>36376</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.09968277083846973</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06627927434084445</v>
+        <v>0.06725999394584639</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1427810031571399</v>
+        <v>0.1387603046886944</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>27</v>
@@ -3125,19 +3125,19 @@
         <v>27532</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>18010</v>
+        <v>18233</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>38018</v>
+        <v>38221</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1008080373541423</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06594442243035289</v>
+        <v>0.0667583709144467</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1392011041520908</v>
+        <v>0.139944642467548</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>53</v>
@@ -3146,19 +3146,19 @@
         <v>53664</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>41141</v>
+        <v>40988</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>69347</v>
+        <v>67821</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1002569272338353</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07686117130852729</v>
+        <v>0.07657516173958231</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1295552272195216</v>
+        <v>0.1267058177289731</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>19148</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>11786</v>
+        <v>12212</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>30027</v>
+        <v>28412</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.07303970040052153</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04495823334704896</v>
+        <v>0.04658420997703365</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1145422278324845</v>
+        <v>0.1083816061423315</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>30</v>
@@ -3196,19 +3196,19 @@
         <v>31231</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>21426</v>
+        <v>21815</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>42795</v>
+        <v>43029</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1143496002023058</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.07844978681899387</v>
+        <v>0.0798743644961273</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1566917567590699</v>
+        <v>0.15754830376227</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>48</v>
@@ -3217,19 +3217,19 @@
         <v>50378</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>38035</v>
+        <v>37295</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>66949</v>
+        <v>64691</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.09411767866856739</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.07105737736346841</v>
+        <v>0.06967639632497404</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1250759000520258</v>
+        <v>0.1208577142574338</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>131224</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>110180</v>
+        <v>111017</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>154710</v>
+        <v>153372</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.203040408949863</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1704801586929736</v>
+        <v>0.1717741630317347</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2393801843044274</v>
+        <v>0.2373088878086055</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>139</v>
@@ -3342,19 +3342,19 @@
         <v>152412</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>131238</v>
+        <v>130977</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>176766</v>
+        <v>174752</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2235712284711457</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1925113311253018</v>
+        <v>0.1921275657922171</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2592957835465465</v>
+        <v>0.2563406267378919</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>260</v>
@@ -3363,19 +3363,19 @@
         <v>283637</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>252481</v>
+        <v>254739</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>314778</v>
+        <v>316451</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2135796268527072</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1901190574095633</v>
+        <v>0.1918194578675437</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2370295017281349</v>
+        <v>0.2382890929718695</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>126080</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>106495</v>
+        <v>105219</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>150094</v>
+        <v>148807</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1950810457020619</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1647774782418386</v>
+        <v>0.1628035049982583</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2322369274686913</v>
+        <v>0.2302466930046252</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>126</v>
@@ -3413,19 +3413,19 @@
         <v>132996</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>111536</v>
+        <v>112158</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>153436</v>
+        <v>153239</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1950904622953281</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1636100237162715</v>
+        <v>0.1645225377594449</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2250728136660588</v>
+        <v>0.2247845822932634</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>234</v>
@@ -3434,19 +3434,19 @@
         <v>259077</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>231567</v>
+        <v>230517</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>290299</v>
+        <v>290963</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1950858795825718</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1743710720928482</v>
+        <v>0.1735806171437324</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2185966901677035</v>
+        <v>0.2190967256333855</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>157428</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>134517</v>
+        <v>137304</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>181955</v>
+        <v>181601</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2435847799139874</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2081359241091787</v>
+        <v>0.212447255201176</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2815357504458502</v>
+        <v>0.280987133866322</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>150</v>
@@ -3484,19 +3484,19 @@
         <v>160758</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>140145</v>
+        <v>139292</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>182523</v>
+        <v>184445</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2358133430028279</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2055772125708688</v>
+        <v>0.2043255280747665</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2677397056577523</v>
+        <v>0.2705597829186263</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>287</v>
@@ -3505,19 +3505,19 @@
         <v>318186</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>288321</v>
+        <v>288579</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>354551</v>
+        <v>352842</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2395954181186624</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2171072045024387</v>
+        <v>0.2173013605924622</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2669787401056216</v>
+        <v>0.2656919231387598</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>103710</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>84291</v>
+        <v>85460</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>124536</v>
+        <v>125212</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1604690804654987</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1304213639517517</v>
+        <v>0.1322306171229655</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1926916589901773</v>
+        <v>0.1937379010571639</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>101</v>
@@ -3555,19 +3555,19 @@
         <v>106134</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>88812</v>
+        <v>89039</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>128761</v>
+        <v>128458</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1556867160986877</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1302771356807563</v>
+        <v>0.1306093859602268</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1888776914609783</v>
+        <v>0.1884331142006282</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>191</v>
@@ -3576,19 +3576,19 @@
         <v>209845</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>182035</v>
+        <v>182658</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>239404</v>
+        <v>239853</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1580141185434785</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1370729175056452</v>
+        <v>0.1375420208415495</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1802722861657511</v>
+        <v>0.1806103134010591</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>127853</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>105016</v>
+        <v>107025</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>148486</v>
+        <v>149017</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1978246849685891</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1624892352273051</v>
+        <v>0.1655982673306146</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2297492910326997</v>
+        <v>0.2305707032770939</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>121</v>
@@ -3626,19 +3626,19 @@
         <v>129416</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>109240</v>
+        <v>109817</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>151524</v>
+        <v>151201</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1898382501320106</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1602421018966454</v>
+        <v>0.1610889770421478</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2222681158264835</v>
+        <v>0.2217938757002704</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>236</v>
@@ -3647,19 +3647,19 @@
         <v>257269</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>228960</v>
+        <v>228674</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>287323</v>
+        <v>289515</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1937249569025802</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1724077079427714</v>
+        <v>0.172192652862871</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2163557998913088</v>
+        <v>0.2180060965458055</v>
       </c>
     </row>
     <row r="45">
@@ -3751,19 +3751,19 @@
         <v>71032</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>56126</v>
+        <v>56577</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>88210</v>
+        <v>87638</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.09205289560381905</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.07273574733018001</v>
+        <v>0.07332013173799748</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1143141430447528</v>
+        <v>0.1135726083622077</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>52</v>
@@ -3772,19 +3772,19 @@
         <v>58782</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>45292</v>
+        <v>44026</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>75109</v>
+        <v>74435</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.07182001086294171</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.05533769098043669</v>
+        <v>0.05379102052491286</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.09176901109684175</v>
+        <v>0.09094459187102792</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>122</v>
@@ -3793,19 +3793,19 @@
         <v>129814</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>108232</v>
+        <v>107890</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>153935</v>
+        <v>153058</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.08163858324411823</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.06806618787592793</v>
+        <v>0.06785095802816328</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.09680808278085336</v>
+        <v>0.09625668973324306</v>
       </c>
     </row>
     <row r="47">
@@ -3822,19 +3822,19 @@
         <v>130707</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>110597</v>
+        <v>111408</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>153273</v>
+        <v>153676</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1693872863349231</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1433267329869106</v>
+        <v>0.1443771394292221</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1986320830716263</v>
+        <v>0.1991542638665433</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>135</v>
@@ -3843,19 +3843,19 @@
         <v>149168</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>127056</v>
+        <v>125799</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>171212</v>
+        <v>174042</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1822541075757465</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1552378848169077</v>
+        <v>0.1537014858129999</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2091870182662379</v>
+        <v>0.2126452104351665</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>265</v>
@@ -3864,19 +3864,19 @@
         <v>279875</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>250497</v>
+        <v>251370</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>312497</v>
+        <v>311787</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1760101232261769</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1575346486684423</v>
+        <v>0.1580839911576161</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1965258937544223</v>
+        <v>0.1960795292028612</v>
       </c>
     </row>
     <row r="48">
@@ -3893,19 +3893,19 @@
         <v>189627</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>165403</v>
+        <v>167211</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>214435</v>
+        <v>213910</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2457445892853404</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2143520736740589</v>
+        <v>0.2166943597746721</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2778946441712044</v>
+        <v>0.2772132004738364</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>203</v>
@@ -3914,19 +3914,19 @@
         <v>220346</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>196500</v>
+        <v>193018</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>248441</v>
+        <v>245355</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2692192384843037</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2400838843038606</v>
+        <v>0.2358301103694768</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3035456592831248</v>
+        <v>0.2997752850905993</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>388</v>
@@ -3935,19 +3935,19 @@
         <v>409973</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>375959</v>
+        <v>373546</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>442758</v>
+        <v>443657</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2578275093643782</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2364366941146638</v>
+        <v>0.2349191953642235</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2784455613032664</v>
+        <v>0.279011313124732</v>
       </c>
     </row>
     <row r="49">
@@ -3964,19 +3964,19 @@
         <v>229157</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>202645</v>
+        <v>204894</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>253467</v>
+        <v>254519</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2969725480261636</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2626147737276739</v>
+        <v>0.2655293243278639</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3284765934044013</v>
+        <v>0.3298407634909045</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>211</v>
@@ -3985,19 +3985,19 @@
         <v>227839</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>201294</v>
+        <v>202438</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>254107</v>
+        <v>254300</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2783744907944247</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2459417679724291</v>
+        <v>0.2473393561494171</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3104694950782966</v>
+        <v>0.3107042814922069</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>431</v>
@@ -4006,19 +4006,19 @@
         <v>456996</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>421785</v>
+        <v>422825</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>494753</v>
+        <v>495483</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2873997174695989</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2652560848047824</v>
+        <v>0.2659099547444707</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3111451341901398</v>
+        <v>0.3116042484345787</v>
       </c>
     </row>
     <row r="50">
@@ -4035,19 +4035,19 @@
         <v>151121</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>129736</v>
+        <v>130733</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>174666</v>
+        <v>174451</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1958426807497539</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1681301710282488</v>
+        <v>0.1694218231843335</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2263556662078542</v>
+        <v>0.2260779658950868</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>147</v>
@@ -4056,19 +4056,19 @@
         <v>162327</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>138174</v>
+        <v>138984</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>188926</v>
+        <v>186463</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1983321522825834</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1688219695779155</v>
+        <v>0.1698113354012547</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2308302632455688</v>
+        <v>0.2278210690104668</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>286</v>
@@ -4077,19 +4077,19 @@
         <v>313448</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>280417</v>
+        <v>282738</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>348317</v>
+        <v>350675</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1971240666957277</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.176351324151072</v>
+        <v>0.1778108902738949</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2190530872850371</v>
+        <v>0.2205358838464959</v>
       </c>
     </row>
     <row r="51">
@@ -4181,19 +4181,19 @@
         <v>824624</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>773592</v>
+        <v>773848</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>875207</v>
+        <v>874248</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.2450144489832675</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.2298518769288588</v>
+        <v>0.2299276948251139</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2600439483743149</v>
+        <v>0.2597589000884593</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>785</v>
@@ -4202,19 +4202,19 @@
         <v>833861</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>783081</v>
+        <v>785757</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>894361</v>
+        <v>887654</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.2370795547128171</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.2226419365634334</v>
+        <v>0.2234026011507653</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2542804913603072</v>
+        <v>0.2523737183874284</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>1581</v>
@@ -4223,19 +4223,19 @@
         <v>1658485</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>1588700</v>
+        <v>1590515</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>1731042</v>
+        <v>1729949</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.2409596107594666</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.2308206107047135</v>
+        <v>0.2310842755167323</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2515013336329888</v>
+        <v>0.2513424356294541</v>
       </c>
     </row>
     <row r="53">
@@ -4252,19 +4252,19 @@
         <v>635172</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>592568</v>
+        <v>586855</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>685948</v>
+        <v>683634</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1887240889582974</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1760653086895574</v>
+        <v>0.1743678663659424</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2038108244587855</v>
+        <v>0.2031231215082636</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>602</v>
@@ -4273,19 +4273,19 @@
         <v>640194</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>598727</v>
+        <v>594129</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>689407</v>
+        <v>685817</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1820169549794115</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1702272790795506</v>
+        <v>0.168920078064817</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1960089019495969</v>
+        <v>0.194988336131009</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1209</v>
@@ -4294,19 +4294,19 @@
         <v>1275366</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1206471</v>
+        <v>1211045</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1336247</v>
+        <v>1341654</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1852966528384464</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1752868672795251</v>
+        <v>0.1759514196162792</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1941419078016911</v>
+        <v>0.19492757652453</v>
       </c>
     </row>
     <row r="54">
@@ -4323,19 +4323,19 @@
         <v>723978</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>681680</v>
+        <v>676034</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>777186</v>
+        <v>771670</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.21511040913632</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2025424825192359</v>
+        <v>0.2008651154018733</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2309197383482852</v>
+        <v>0.2292807586875332</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>703</v>
@@ -4344,19 +4344,19 @@
         <v>745461</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>697576</v>
+        <v>696969</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>793821</v>
+        <v>794467</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2119458685518697</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1983314695114033</v>
+        <v>0.1981590206958352</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2256954539401241</v>
+        <v>0.2258792501097253</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1391</v>
@@ -4365,19 +4365,19 @@
         <v>1469439</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1397480</v>
+        <v>1396342</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1540702</v>
+        <v>1534900</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2134932861243116</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2030384736449698</v>
+        <v>0.2028730797064485</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.223846957874475</v>
+        <v>0.2230040496488379</v>
       </c>
     </row>
     <row r="55">
@@ -4394,19 +4394,19 @@
         <v>607169</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>560745</v>
+        <v>562518</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>653887</v>
+        <v>652102</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1804038114199495</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1666101238619214</v>
+        <v>0.1671369097829647</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1942846686444074</v>
+        <v>0.1937543978287712</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>607</v>
@@ -4415,19 +4415,19 @@
         <v>641430</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>590766</v>
+        <v>596662</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>685907</v>
+        <v>687828</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1823683319641755</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1679637726909912</v>
+        <v>0.1696400681378599</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1950139172054201</v>
+        <v>0.1955601341299758</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1188</v>
@@ -4436,19 +4436,19 @@
         <v>1248599</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1191486</v>
+        <v>1182738</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1322826</v>
+        <v>1309771</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1814077079713925</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1731098385155982</v>
+        <v>0.1718387775771642</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.192192012786013</v>
+        <v>0.1902953489851615</v>
       </c>
     </row>
     <row r="56">
@@ -4465,19 +4465,19 @@
         <v>574669</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>534011</v>
+        <v>529844</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>622558</v>
+        <v>616987</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1707472415021656</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1586667476873073</v>
+        <v>0.1574287707544421</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1849760335715701</v>
+        <v>0.183320742203661</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>616</v>
@@ -4486,19 +4486,19 @@
         <v>656276</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>607931</v>
+        <v>605522</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>705417</v>
+        <v>702221</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1865892897917263</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1728440948600078</v>
+        <v>0.17215908796288</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.200560895328918</v>
+        <v>0.1996521889138319</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1150</v>
@@ -4507,19 +4507,19 @@
         <v>1230945</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1166854</v>
+        <v>1165007</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1301806</v>
+        <v>1297881</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1788427423063828</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.169530959859641</v>
+        <v>0.1692627191404379</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.189138004800618</v>
+        <v>0.1885678532650978</v>
       </c>
     </row>
     <row r="57">
